--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -805,7 +805,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -883,36 +883,28 @@
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="b">
-        <f t="shared" ref="B3:I3" si="0">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <f t="shared" si="0"/>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -920,36 +912,28 @@
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="b">
-        <f t="shared" ref="B4:I4" si="1">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="b">
-        <f t="shared" si="1"/>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -957,36 +941,28 @@
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9" t="b">
-        <f t="shared" ref="B5:I5" si="2">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="b">
-        <f t="shared" si="2"/>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -994,36 +970,28 @@
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="b">
-        <f t="shared" ref="B6:I6" si="3">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="b">
-        <f t="shared" si="3"/>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1031,36 +999,28 @@
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <f t="shared" ref="B7:I7" si="4">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <f t="shared" si="4"/>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1068,36 +1028,28 @@
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <f t="shared" ref="B8:I9" si="5">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <f t="shared" si="5"/>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1105,36 +1057,28 @@
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <f t="shared" si="5"/>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1373,7 +1317,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 B7:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990"/>
+    <workbookView windowWidth="21495" windowHeight="9930" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>Id</t>
   </si>
@@ -48,6 +43,9 @@
     <t>Area</t>
   </si>
   <si>
+    <t>WebPort</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -67,6 +65,9 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
   <si>
     <t>Upload</t>
@@ -81,7 +82,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务器</t>
@@ -92,7 +92,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ID</t>
@@ -117,7 +116,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作为服务器时：相对客户端的</t>
@@ -128,7 +126,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>port</t>
@@ -189,6 +186,15 @@
     <t>LoginServer</t>
   </si>
   <si>
+    <t>AIServer_1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>AIServer</t>
+  </si>
+  <si>
     <t>TutorialServer_1</t>
   </si>
   <si>
@@ -196,28 +202,19 @@
   </si>
   <si>
     <t>TutorialServer</t>
-  </si>
-  <si>
-    <t>AIServer_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,25 +238,168 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +418,194 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -403,9 +729,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -459,10 +1027,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -535,9 +1150,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -795,33 +1407,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.73046875"/>
-    <col min="2" max="2" width="10.46484375"/>
+    <col min="1" max="1" width="28.7333333333333"/>
+    <col min="2" max="2" width="10.4666666666667"/>
     <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="11.59765625"/>
-    <col min="5" max="5" width="8.1328125"/>
-    <col min="6" max="6" width="15.3984375"/>
+    <col min="4" max="4" width="11.6"/>
+    <col min="5" max="5" width="8.13333333333333"/>
+    <col min="6" max="6" width="15.4"/>
     <col min="7" max="7" width="23"/>
-    <col min="8" max="8" width="9.3984375"/>
-    <col min="9" max="1025" width="8.59765625"/>
+    <col min="8" max="8" width="9.4"/>
+    <col min="9" max="1025" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="27">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,277 +1462,307 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:10">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="41.65">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1128,27 +1771,30 @@
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>16001</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1157,27 +1803,30 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>17001</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1186,27 +1835,30 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>15001</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>5001</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1215,27 +1867,30 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>13001</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1244,24 +1899,27 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" s="15">
         <v>14001</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15">
+        <v>4001</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>46</v>
@@ -1273,27 +1931,30 @@
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" s="15">
         <v>18001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>5000</v>
@@ -1302,27 +1963,30 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" s="15">
         <v>14001</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\NoahGameFrame_test\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{161045D3-80EB-4A60-83B9-C10102C0FFC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -212,12 +213,108 @@
   <si>
     <t>Force</t>
   </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProxyServer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GameServer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WorldServer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ProxyServer_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,7 +326,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -257,6 +353,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="4">
@@ -409,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,9 +559,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -800,25 +907,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I9"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.73046875"/>
-    <col min="2" max="2" width="10.46484375"/>
+    <col min="1" max="1" width="28.75"/>
+    <col min="2" max="2" width="10.5"/>
     <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="11.59765625"/>
-    <col min="5" max="5" width="8.1328125"/>
-    <col min="6" max="6" width="15.3984375"/>
+    <col min="4" max="4" width="11.625"/>
+    <col min="5" max="5" width="8.125"/>
+    <col min="6" max="6" width="15.375"/>
     <col min="7" max="7" width="23"/>
-    <col min="8" max="8" width="9.3984375"/>
-    <col min="9" max="1025" width="8.59765625"/>
+    <col min="8" max="8" width="9.375"/>
+    <col min="9" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="27">
@@ -1082,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="41.65">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="45">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -1314,13 +1421,100 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18">
+        <v>16002</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>17002</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>15002</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -186,13 +186,13 @@
     <t>LoginServer</t>
   </si>
   <si>
-    <t>AIServer_1</t>
+    <t>DBServer_1</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>AIServer</t>
+    <t>DBServer</t>
   </si>
   <si>
     <t>TutorialServer_1</t>
@@ -211,10 +211,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -239,6 +239,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -256,98 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +279,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -368,9 +331,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,19 +384,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -420,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +719,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,8 +750,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,8 +800,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,29 +820,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,130 +843,130 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,7 +1411,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -255,10 +255,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GameServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ProxyServer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>WorldServer22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameServer222</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -911,7 +911,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>5000</v>
@@ -1446,18 +1446,18 @@
         <v>27</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>5000</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>5000</v>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\NoahGameFrame_test\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lab\DEVELOP\vs2013\wtl\web_snapshot_bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{161045D3-80EB-4A60-83B9-C10102C0FFC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -260,10 +259,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>WorldServer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ProxyServer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -309,11 +304,15 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>WorldServer22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -907,12 +906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,7 +1422,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>49</v>
@@ -1452,13 +1451,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>5000</v>
@@ -1481,13 +1480,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>5000</v>
@@ -1511,10 +1510,10 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10 J7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" tabRatio="990"/>
+    <workbookView windowWidth="21495" windowHeight="10335" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>Id</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Cell</t>
   </si>
   <si>
     <t>WebPort</t>
@@ -209,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -250,6 +253,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +319,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -270,127 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -413,19 +416,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,163 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +753,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -772,16 +799,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,177 +823,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,12 +1409,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1424,10 +1427,10 @@
     <col min="6" max="6" width="15.4"/>
     <col min="7" max="7" width="23"/>
     <col min="8" max="8" width="9.4"/>
-    <col min="9" max="1025" width="8.6"/>
+    <col min="9" max="1026" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1458,42 +1461,48 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
+    <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -1522,10 +1531,13 @@
       <c r="J3" s="9">
         <v>0</v>
       </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+    <row r="4" s="2" customFormat="1" spans="1:11">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -1554,10 +1566,13 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:10">
+    <row r="5" s="2" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -1586,10 +1601,13 @@
       <c r="J5" s="9">
         <v>0</v>
       </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:10">
+    <row r="6" s="2" customFormat="1" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1618,10 +1636,13 @@
       <c r="J6" s="9">
         <v>0</v>
       </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:10">
+    <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -1650,10 +1671,13 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:10">
+    <row r="8" s="3" customFormat="1" spans="1:11">
       <c r="A8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -1682,10 +1706,13 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" spans="1:11">
       <c r="A9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1714,48 +1741,54 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="42.75" spans="1:10">
+    <row r="10" s="4" customFormat="1" ht="42.75" spans="1:11">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1764,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>16001</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1778,16 +1811,19 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1796,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>17001</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1810,16 +1846,19 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1828,30 +1867,33 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>15001</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>5001</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1860,30 +1902,33 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>13001</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>3001</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1892,30 +1937,33 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="15">
         <v>14001</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>4001</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>5000</v>
@@ -1924,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="15">
         <v>18001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1938,16 +1986,19 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>5000</v>
@@ -1956,18 +2007,21 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="15">
         <v>14001</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="10340" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -210,14 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,159 +250,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,194 +270,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -725,251 +395,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,58 +451,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1403,34 +784,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11:J17"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="28.7333333333333"/>
-    <col min="2" max="2" width="10.4666666666667"/>
-    <col min="3" max="3" width="16"/>
-    <col min="4" max="4" width="11.6"/>
-    <col min="5" max="5" width="8.13333333333333"/>
-    <col min="6" max="6" width="15.4"/>
-    <col min="7" max="7" width="23"/>
-    <col min="8" max="8" width="9.4"/>
-    <col min="9" max="1026" width="8.6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1605,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:11">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:11">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:11">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1745,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="42.75" spans="1:11">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
@@ -1809,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1850,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1885,7 +1254,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1920,7 +1289,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>42</v>
       </c>
@@ -1955,7 +1324,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
@@ -1990,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2032,8 +1401,7 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/ctc/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21500" windowHeight="10340" tabRatio="990"/>
+    <workbookView windowHeight="21760" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +47,9 @@
   </si>
   <si>
     <t>WebPort</t>
+  </si>
+  <si>
+    <t>WSPort</t>
   </si>
   <si>
     <t>int</t>
@@ -223,8 +213,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,8 +246,166 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +424,194 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -395,13 +735,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,11 +1062,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -784,22 +1452,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="34" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -833,45 +1505,51 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" ht="17" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" ht="17" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9">
         <v>0</v>
@@ -903,10 +1581,13 @@
       <c r="K3" s="9">
         <v>0</v>
       </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="17" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -938,10 +1619,13 @@
       <c r="K4" s="9">
         <v>0</v>
       </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="17" spans="1:12">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -973,10 +1657,13 @@
       <c r="K5" s="9">
         <v>0</v>
       </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="17" spans="1:12">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1008,10 +1695,13 @@
       <c r="K6" s="9">
         <v>0</v>
       </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
@@ -1043,10 +1733,13 @@
       <c r="K7" s="9">
         <v>0</v>
       </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
@@ -1078,10 +1771,13 @@
       <c r="K8" s="9">
         <v>0</v>
       </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:12">
       <c r="A9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
@@ -1113,34 +1809,37 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="84.75" spans="1:12">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>9</v>
@@ -1148,16 +1847,19 @@
       <c r="K10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L10" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1166,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>16001</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1183,16 +1885,19 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11" s="18">
+        <v>26001</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1201,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>17001</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1218,16 +1923,19 @@
       <c r="K12">
         <v>0</v>
       </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>5000</v>
@@ -1236,13 +1944,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>15001</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1253,16 +1961,19 @@
       <c r="K13">
         <v>5001</v>
       </c>
+      <c r="L13" s="18">
+        <v>25001</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1271,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>13001</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1288,16 +1999,19 @@
       <c r="K14">
         <v>3001</v>
       </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -1306,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" s="15">
         <v>14001</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1323,16 +2037,19 @@
       <c r="K15">
         <v>4001</v>
       </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>5000</v>
@@ -1341,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="15">
         <v>18001</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1358,16 +2075,19 @@
       <c r="K16">
         <v>0</v>
       </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>5000</v>
@@ -1376,13 +2096,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="15">
         <v>14001</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1391,6 +2111,9 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1401,7 +2124,8 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21760" tabRatio="990"/>
+    <workbookView windowHeight="21120" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>ServerID</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>MaxOnline</t>
@@ -104,9 +101,6 @@
     </r>
   </si>
   <si>
-    <t>服务器名字</t>
-  </si>
-  <si>
     <t>作为服务器时：服务器最大连接</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>GameServer</t>
-  </si>
-  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -162,52 +153,34 @@
     <t>7</t>
   </si>
   <si>
-    <t>WorldServer</t>
-  </si>
-  <si>
     <t>ProxyServer_1</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>ProxyServer</t>
-  </si>
-  <si>
     <t>MasterServer_1</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>MasterServer</t>
-  </si>
-  <si>
     <t>LoginServer_1</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>LoginServer</t>
-  </si>
-  <si>
     <t>DBServer_1</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>DBServer</t>
-  </si>
-  <si>
     <t>TutorialServer_1</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>TutorialServer</t>
   </si>
 </sst>
 </file>
@@ -215,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -252,6 +225,21 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -263,28 +251,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +325,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,21 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -336,74 +377,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -432,181 +405,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +739,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,17 +763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,7 +776,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,9 +798,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,22 +822,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,148 +841,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,12 +1431,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1471,29 +1444,29 @@
     <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="34" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1505,621 +1478,570 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="17" spans="1:11">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="17" spans="1:12">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17" spans="1:11">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>12</v>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17" spans="1:12">
-      <c r="A3" s="8" t="s">
+    <row r="4" s="2" customFormat="1" ht="17" spans="1:11">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="17" spans="1:12">
-      <c r="A4" s="8" t="s">
+    <row r="5" s="2" customFormat="1" ht="17" spans="1:11">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="17" spans="1:12">
-      <c r="A5" s="8" t="s">
+    <row r="6" s="2" customFormat="1" ht="17" spans="1:11">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="17" spans="1:12">
-      <c r="A6" s="8" t="s">
+    <row r="7" s="3" customFormat="1" ht="17" spans="1:11">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:12">
-      <c r="A7" s="10" t="s">
+    <row r="8" s="3" customFormat="1" ht="17" spans="1:11">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:12">
-      <c r="A8" s="10" t="s">
+    <row r="9" s="3" customFormat="1" ht="17" spans="1:11">
+      <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:12">
-      <c r="A9" s="10" t="s">
+    <row r="10" s="4" customFormat="1" ht="84.75" spans="1:11">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="84.75" spans="1:12">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
+        <v>16001</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
         <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>16001</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>26001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <v>26001</v>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>17001</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>15001</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5001</v>
+      </c>
+      <c r="K13" s="18">
+        <v>25001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
+      <c r="C14">
         <v>5000</v>
       </c>
-      <c r="E12">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>17001</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12">
+      <c r="E14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>13001</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3001</v>
+      </c>
+      <c r="K14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="15">
+        <v>14001</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4001</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
         <v>5000</v>
       </c>
-      <c r="E13">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13">
-        <v>15001</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="E16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15">
+        <v>18001</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="15">
+        <v>14001</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>5001</v>
-      </c>
-      <c r="L13" s="18">
-        <v>25001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>5000</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14">
-        <v>13001</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>3001</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>5000</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="15">
-        <v>14001</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>4001</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15">
-        <v>18001</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>5000</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="15">
-        <v>14001</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>44</v>
-      </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21120" tabRatio="990"/>
+    <workbookView windowHeight="23360" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>Id</t>
   </si>
@@ -40,15 +40,15 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
     <t>WebPort</t>
   </si>
   <si>
     <t>WSPort</t>
   </si>
   <si>
+    <t>UDPPort</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -79,63 +79,22 @@
     <t>Desc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-  </si>
-  <si>
-    <t>作为服务器时：服务器最大连接</t>
-  </si>
-  <si>
-    <t>CPU个数（机器）</t>
-  </si>
-  <si>
-    <t>IP地址</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作为服务器时：相对客户端的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>port</t>
-    </r>
-  </si>
-  <si>
-    <t>服务器类型</t>
-  </si>
-  <si>
-    <t>区服</t>
+    <t>Instance ID</t>
+  </si>
+  <si>
+    <t>tcp port</t>
+  </si>
+  <si>
+    <t>server type</t>
+  </si>
+  <si>
+    <t>http port</t>
+  </si>
+  <si>
+    <t>websocket port</t>
+  </si>
+  <si>
+    <t>udp port</t>
   </si>
   <si>
     <t>GameServer_1</t>
@@ -190,10 +149,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,6 +171,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Songti SC"/>
       <charset val="1"/>
     </font>
     <font>
@@ -236,7 +209,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,23 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,21 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -318,36 +276,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -355,8 +283,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +306,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -377,6 +336,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -399,18 +372,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,25 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,133 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,15 +708,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,13 +760,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,17 +790,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,152 +814,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,22 +996,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1436,12 +1418,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="15.5480769230769" customWidth="1"/>
+    <col min="3" max="3" width="15.8653846153846" customWidth="1"/>
+    <col min="4" max="4" width="14.9038461538462" customWidth="1"/>
+    <col min="5" max="5" width="11.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="12.3365384615385" customWidth="1"/>
+    <col min="7" max="7" width="21.7884615384615" customWidth="1"/>
+    <col min="8" max="8" width="11.8557692307692" customWidth="1"/>
+    <col min="9" max="9" width="20.6730769230769" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="22.7596153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="34" spans="1:11">
@@ -1507,10 +1499,10 @@
       <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1542,10 +1534,10 @@
       <c r="I3" s="9">
         <v>0</v>
       </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1577,10 +1569,10 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1612,10 +1604,10 @@
       <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1647,10 +1639,10 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1682,10 +1674,10 @@
       <c r="I7" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1717,10 +1709,10 @@
       <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1752,89 +1744,81 @@
       <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="84.75" spans="1:11">
+    <row r="10" s="4" customFormat="1" ht="17" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="J10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="K10" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="C11">
         <v>5000</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
         <v>16001</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>29</v>
+      <c r="G11" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>26001</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -1842,14 +1826,14 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
+      <c r="E12" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F12">
         <v>17001</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
+      <c r="G12" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1857,19 +1841,19 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -1877,34 +1861,34 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
+      <c r="E13" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F13">
         <v>15001</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>34</v>
+      <c r="G13" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>5001</v>
       </c>
-      <c r="K13" s="18">
+      <c r="J13" s="21">
         <v>25001</v>
+      </c>
+      <c r="K13" s="21">
+        <v>35001</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -1912,34 +1896,34 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>30</v>
+      <c r="E14" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="F14">
         <v>13001</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>36</v>
+      <c r="G14" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>3001</v>
       </c>
-      <c r="K14" s="18">
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C15">
         <v>5000</v>
@@ -1947,34 +1931,34 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="18">
         <v>14001</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>38</v>
+      <c r="G15" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>4001</v>
       </c>
-      <c r="K15" s="18">
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -1982,14 +1966,14 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="18">
         <v>18001</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>40</v>
+      <c r="G16" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1997,19 +1981,19 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C17">
         <v>5000</v>
@@ -2017,14 +2001,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="E17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="18">
         <v>14001</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>38</v>
+      <c r="G17" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2032,10 +2016,10 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -147,9 +147,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
@@ -209,6 +209,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -216,7 +230,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,8 +320,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,110 +345,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -372,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,39 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -760,6 +727,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -771,6 +747,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,15 +777,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -809,150 +785,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1418,7 +1418,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1436,7 +1436,7 @@
     <col min="11" max="11" width="22.7596153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="17" spans="1:11">
+    <row r="10" s="4" customFormat="1" ht="17.75" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>5000</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>29</v>

--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23360" tabRatio="990"/>
+    <workbookView windowHeight="15880" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>Id</t>
   </si>
@@ -97,49 +97,55 @@
     <t>udp port</t>
   </si>
   <si>
-    <t>GameServer_1</t>
+    <t>WorldServer_1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>ProxyServer_1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>MasterServer_1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>LoginServer_1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DBServer_1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>GameServer_16001</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>WorldServer_1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ProxyServer_1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>MasterServer_1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>LoginServer_1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DBServer_1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>TutorialServer_1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>GameServer_16002</t>
+  </si>
+  <si>
+    <t>GameServer_16003</t>
+  </si>
+  <si>
+    <t>GameServer_16004</t>
+  </si>
+  <si>
+    <t>GameServer_16005</t>
   </si>
 </sst>
 </file>
@@ -147,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -198,6 +204,67 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -208,6 +275,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -216,20 +299,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -237,7 +306,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,32 +327,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,67 +356,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -372,13 +378,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,157 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +718,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -723,39 +747,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,13 +766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,153 +804,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,39 +1050,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1413,17 +1419,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
+    <col min="1" max="1" width="19.5384615384615" customWidth="1"/>
     <col min="2" max="2" width="15.5480769230769" customWidth="1"/>
     <col min="3" max="3" width="15.8653846153846" customWidth="1"/>
     <col min="4" max="4" width="14.9038461538462" customWidth="1"/>
@@ -1795,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>16001</v>
+        <v>17001</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>28</v>
@@ -1830,7 +1836,7 @@
         <v>29</v>
       </c>
       <c r="F12">
-        <v>17001</v>
+        <v>15001</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>31</v>
@@ -1839,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="J12" s="21">
-        <v>0</v>
+        <v>25001</v>
       </c>
       <c r="K12" s="21">
-        <v>0</v>
+        <v>35001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1865,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>15001</v>
+        <v>13001</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>33</v>
@@ -1874,20 +1880,20 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>5001</v>
+        <v>3001</v>
       </c>
       <c r="J13" s="21">
-        <v>25001</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21">
-        <v>35001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C14">
@@ -1899,17 +1905,17 @@
       <c r="E14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F14">
-        <v>13001</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="18">
+        <v>14001</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3001</v>
+        <v>4001</v>
       </c>
       <c r="J14" s="21">
         <v>0</v>
@@ -1935,7 +1941,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="18">
-        <v>14001</v>
+        <v>18001</v>
       </c>
       <c r="G15" s="16" t="s">
         <v>37</v>
@@ -1944,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="J15" s="21">
         <v>0</v>
@@ -1953,12 +1959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>39</v>
+      <c r="B16">
+        <v>16001</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -1969,10 +1975,10 @@
       <c r="E16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="18">
-        <v>18001</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="F16">
+        <v>16001</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H16">
@@ -1989,11 +1995,11 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>41</v>
+      <c r="B17">
+        <v>16002</v>
       </c>
       <c r="C17">
         <v>5000</v>
@@ -2004,11 +2010,11 @@
       <c r="E17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="18">
-        <v>14001</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>37</v>
+      <c r="F17">
+        <v>16002</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2020,6 +2026,111 @@
         <v>0</v>
       </c>
       <c r="K17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>16003</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>16003</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>16004</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>16004</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>16005</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>16005</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
         <v>0</v>
       </c>
     </row>
